--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Il1rn-Il1r2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Il1rn-Il1r2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>84.9998358242257</v>
+        <v>0.4115716666666667</v>
       </c>
       <c r="H2">
-        <v>84.9998358242257</v>
+        <v>1.234715</v>
       </c>
       <c r="I2">
-        <v>0.4774149197012711</v>
+        <v>0.002110162210096788</v>
       </c>
       <c r="J2">
-        <v>0.4774149197012711</v>
+        <v>0.002110162210096788</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.806839582923407</v>
+        <v>0.05504633333333334</v>
       </c>
       <c r="N2">
-        <v>0.806839582923407</v>
+        <v>0.165139</v>
       </c>
       <c r="O2">
-        <v>0.05796206975001117</v>
+        <v>0.002371469359192472</v>
       </c>
       <c r="P2">
-        <v>0.05796206975001117</v>
+        <v>0.002371469359192472</v>
       </c>
       <c r="Q2">
-        <v>68.58123208497632</v>
+        <v>0.02265551115388889</v>
       </c>
       <c r="R2">
-        <v>68.58123208497632</v>
+        <v>0.203899600385</v>
       </c>
       <c r="S2">
-        <v>0.02767195687542106</v>
+        <v>5.0041850241704E-06</v>
       </c>
       <c r="T2">
-        <v>0.02767195687542106</v>
+        <v>5.0041850241704E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>84.9998358242257</v>
+        <v>0.4115716666666667</v>
       </c>
       <c r="H3">
-        <v>84.9998358242257</v>
+        <v>1.234715</v>
       </c>
       <c r="I3">
-        <v>0.4774149197012711</v>
+        <v>0.002110162210096788</v>
       </c>
       <c r="J3">
-        <v>0.4774149197012711</v>
+        <v>0.002110162210096788</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.82912147931623</v>
+        <v>1.016579</v>
       </c>
       <c r="N3">
-        <v>7.82912147931623</v>
+        <v>3.049737</v>
       </c>
       <c r="O3">
-        <v>0.5624316095415417</v>
+        <v>0.04379557735662424</v>
       </c>
       <c r="P3">
-        <v>0.5624316095415417</v>
+        <v>0.04379557735662425</v>
       </c>
       <c r="Q3">
-        <v>665.4740403897986</v>
+        <v>0.4183951133283333</v>
       </c>
       <c r="R3">
-        <v>665.4740403897986</v>
+        <v>3.765556019955</v>
       </c>
       <c r="S3">
-        <v>0.2685132417067318</v>
+        <v>9.241577230731905E-05</v>
       </c>
       <c r="T3">
-        <v>0.2685132417067318</v>
+        <v>9.241577230731906E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>84.9998358242257</v>
+        <v>0.4115716666666667</v>
       </c>
       <c r="H4">
-        <v>84.9998358242257</v>
+        <v>1.234715</v>
       </c>
       <c r="I4">
-        <v>0.4774149197012711</v>
+        <v>0.002110162210096788</v>
       </c>
       <c r="J4">
-        <v>0.4774149197012711</v>
+        <v>0.002110162210096788</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.84133868868903</v>
+        <v>8.671405</v>
       </c>
       <c r="N4">
-        <v>4.84133868868903</v>
+        <v>26.014215</v>
       </c>
       <c r="O4">
-        <v>0.3477940555921632</v>
+        <v>0.3735756773139306</v>
       </c>
       <c r="P4">
-        <v>0.3477940555921632</v>
+        <v>0.3735756773139307</v>
       </c>
       <c r="Q4">
-        <v>411.5129937080396</v>
+        <v>3.568904608191667</v>
       </c>
       <c r="R4">
-        <v>411.5129937080396</v>
+        <v>32.120141473725</v>
       </c>
       <c r="S4">
-        <v>0.166042071123112</v>
+        <v>0.0007883052768791684</v>
       </c>
       <c r="T4">
-        <v>0.166042071123112</v>
+        <v>0.0007883052768791684</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>84.9998358242257</v>
+        <v>0.4115716666666667</v>
       </c>
       <c r="H5">
-        <v>84.9998358242257</v>
+        <v>1.234715</v>
       </c>
       <c r="I5">
-        <v>0.4774149197012711</v>
+        <v>0.002110162210096788</v>
       </c>
       <c r="J5">
-        <v>0.4774149197012711</v>
+        <v>0.002110162210096788</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.442830886284326</v>
+        <v>12.91794</v>
       </c>
       <c r="N5">
-        <v>0.442830886284326</v>
+        <v>38.75382</v>
       </c>
       <c r="O5">
-        <v>0.03181226511628392</v>
+        <v>0.5565220613038737</v>
       </c>
       <c r="P5">
-        <v>0.03181226511628392</v>
+        <v>0.5565220613038738</v>
       </c>
       <c r="Q5">
-        <v>37.64055263206407</v>
+        <v>5.3166580957</v>
       </c>
       <c r="R5">
-        <v>37.64055263206407</v>
+        <v>47.84992286130001</v>
       </c>
       <c r="S5">
-        <v>0.01518764999600624</v>
+        <v>0.001174351822848602</v>
       </c>
       <c r="T5">
-        <v>0.01518764999600624</v>
+        <v>0.001174351822848602</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>93.0420148104632</v>
+        <v>0.4115716666666667</v>
       </c>
       <c r="H6">
-        <v>93.0420148104632</v>
+        <v>1.234715</v>
       </c>
       <c r="I6">
-        <v>0.522585080298729</v>
+        <v>0.002110162210096788</v>
       </c>
       <c r="J6">
-        <v>0.522585080298729</v>
+        <v>0.002110162210096788</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.806839582923407</v>
+        <v>0.5509396666666667</v>
       </c>
       <c r="N6">
-        <v>0.806839582923407</v>
+        <v>1.652819</v>
       </c>
       <c r="O6">
-        <v>0.05796206975001117</v>
+        <v>0.02373521466637888</v>
       </c>
       <c r="P6">
-        <v>0.05796206975001117</v>
+        <v>0.02373521466637889</v>
       </c>
       <c r="Q6">
-        <v>75.06998042402758</v>
+        <v>0.2267511568427778</v>
       </c>
       <c r="R6">
-        <v>75.06998042402758</v>
+        <v>2.040760411585</v>
       </c>
       <c r="S6">
-        <v>0.03029011287459012</v>
+        <v>5.008515303752777E-05</v>
       </c>
       <c r="T6">
-        <v>0.03029011287459012</v>
+        <v>5.008515303752776E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>93.0420148104632</v>
+        <v>90.57905466666666</v>
       </c>
       <c r="H7">
-        <v>93.0420148104632</v>
+        <v>271.737164</v>
       </c>
       <c r="I7">
-        <v>0.522585080298729</v>
+        <v>0.4644063565694702</v>
       </c>
       <c r="J7">
-        <v>0.522585080298729</v>
+        <v>0.4644063565694702</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>7.82912147931623</v>
+        <v>0.05504633333333334</v>
       </c>
       <c r="N7">
-        <v>7.82912147931623</v>
+        <v>0.165139</v>
       </c>
       <c r="O7">
-        <v>0.5624316095415417</v>
+        <v>0.002371469359192472</v>
       </c>
       <c r="P7">
-        <v>0.5624316095415417</v>
+        <v>0.002371469359192472</v>
       </c>
       <c r="Q7">
-        <v>728.4372366314562</v>
+        <v>4.986044836199556</v>
       </c>
       <c r="R7">
-        <v>728.4372366314562</v>
+        <v>44.874403525796</v>
       </c>
       <c r="S7">
-        <v>0.29391836783481</v>
+        <v>0.001101325444818712</v>
       </c>
       <c r="T7">
-        <v>0.29391836783481</v>
+        <v>0.001101325444818712</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>93.0420148104632</v>
+        <v>90.57905466666666</v>
       </c>
       <c r="H8">
-        <v>93.0420148104632</v>
+        <v>271.737164</v>
       </c>
       <c r="I8">
-        <v>0.522585080298729</v>
+        <v>0.4644063565694702</v>
       </c>
       <c r="J8">
-        <v>0.522585080298729</v>
+        <v>0.4644063565694702</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.84133868868903</v>
+        <v>1.016579</v>
       </c>
       <c r="N8">
-        <v>4.84133868868903</v>
+        <v>3.049737</v>
       </c>
       <c r="O8">
-        <v>0.3477940555921632</v>
+        <v>0.04379557735662424</v>
       </c>
       <c r="P8">
-        <v>0.3477940555921632</v>
+        <v>0.04379557735662425</v>
       </c>
       <c r="Q8">
-        <v>450.4479059754732</v>
+        <v>92.08076481398533</v>
       </c>
       <c r="R8">
-        <v>450.4479059754732</v>
+        <v>828.726883325868</v>
       </c>
       <c r="S8">
-        <v>0.1817519844690512</v>
+        <v>0.02033894451404625</v>
       </c>
       <c r="T8">
-        <v>0.1817519844690512</v>
+        <v>0.02033894451404625</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,495 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>90.57905466666666</v>
+      </c>
+      <c r="H9">
+        <v>271.737164</v>
+      </c>
+      <c r="I9">
+        <v>0.4644063565694702</v>
+      </c>
+      <c r="J9">
+        <v>0.4644063565694702</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>8.671405</v>
+      </c>
+      <c r="N9">
+        <v>26.014215</v>
+      </c>
+      <c r="O9">
+        <v>0.3735756773139306</v>
+      </c>
+      <c r="P9">
+        <v>0.3735756773139307</v>
+      </c>
+      <c r="Q9">
+        <v>785.4476675318067</v>
+      </c>
+      <c r="R9">
+        <v>7069.02900778626</v>
+      </c>
+      <c r="S9">
+        <v>0.1734909192043346</v>
+      </c>
+      <c r="T9">
+        <v>0.1734909192043346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>90.57905466666666</v>
+      </c>
+      <c r="H10">
+        <v>271.737164</v>
+      </c>
+      <c r="I10">
+        <v>0.4644063565694702</v>
+      </c>
+      <c r="J10">
+        <v>0.4644063565694702</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>12.91794</v>
+      </c>
+      <c r="N10">
+        <v>38.75382</v>
+      </c>
+      <c r="O10">
+        <v>0.5565220613038737</v>
+      </c>
+      <c r="P10">
+        <v>0.5565220613038738</v>
+      </c>
+      <c r="Q10">
+        <v>1170.09479344072</v>
+      </c>
+      <c r="R10">
+        <v>10530.85314096648</v>
+      </c>
+      <c r="S10">
+        <v>0.2584523828406633</v>
+      </c>
+      <c r="T10">
+        <v>0.2584523828406634</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>90.57905466666666</v>
+      </c>
+      <c r="H11">
+        <v>271.737164</v>
+      </c>
+      <c r="I11">
+        <v>0.4644063565694702</v>
+      </c>
+      <c r="J11">
+        <v>0.4644063565694702</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.5509396666666667</v>
+      </c>
+      <c r="N11">
+        <v>1.652819</v>
+      </c>
+      <c r="O11">
+        <v>0.02373521466637888</v>
+      </c>
+      <c r="P11">
+        <v>0.02373521466637889</v>
+      </c>
+      <c r="Q11">
+        <v>49.90359418503511</v>
+      </c>
+      <c r="R11">
+        <v>449.132347665316</v>
+      </c>
+      <c r="S11">
+        <v>0.01102278456560727</v>
+      </c>
+      <c r="T11">
+        <v>0.01102278456560727</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>104.0520413333333</v>
+      </c>
+      <c r="H12">
+        <v>312.156124</v>
+      </c>
+      <c r="I12">
+        <v>0.533483481220433</v>
+      </c>
+      <c r="J12">
+        <v>0.533483481220433</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.05504633333333334</v>
+      </c>
+      <c r="N12">
+        <v>0.165139</v>
+      </c>
+      <c r="O12">
+        <v>0.002371469359192472</v>
+      </c>
+      <c r="P12">
+        <v>0.002371469359192472</v>
+      </c>
+      <c r="Q12">
+        <v>5.727683351248444</v>
+      </c>
+      <c r="R12">
+        <v>51.549150161236</v>
+      </c>
+      <c r="S12">
+        <v>0.001265139729349589</v>
+      </c>
+      <c r="T12">
+        <v>0.00126513972934959</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>93.0420148104632</v>
-      </c>
-      <c r="H9">
-        <v>93.0420148104632</v>
-      </c>
-      <c r="I9">
-        <v>0.522585080298729</v>
-      </c>
-      <c r="J9">
-        <v>0.522585080298729</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.442830886284326</v>
-      </c>
-      <c r="N9">
-        <v>0.442830886284326</v>
-      </c>
-      <c r="O9">
-        <v>0.03181226511628392</v>
-      </c>
-      <c r="P9">
-        <v>0.03181226511628392</v>
-      </c>
-      <c r="Q9">
-        <v>41.2018778801968</v>
-      </c>
-      <c r="R9">
-        <v>41.2018778801968</v>
-      </c>
-      <c r="S9">
-        <v>0.01662461512027769</v>
-      </c>
-      <c r="T9">
-        <v>0.01662461512027769</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>104.0520413333333</v>
+      </c>
+      <c r="H13">
+        <v>312.156124</v>
+      </c>
+      <c r="I13">
+        <v>0.533483481220433</v>
+      </c>
+      <c r="J13">
+        <v>0.533483481220433</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.016579</v>
+      </c>
+      <c r="N13">
+        <v>3.049737</v>
+      </c>
+      <c r="O13">
+        <v>0.04379557735662424</v>
+      </c>
+      <c r="P13">
+        <v>0.04379557735662425</v>
+      </c>
+      <c r="Q13">
+        <v>105.7771201265986</v>
+      </c>
+      <c r="R13">
+        <v>951.994081139388</v>
+      </c>
+      <c r="S13">
+        <v>0.02336421707027067</v>
+      </c>
+      <c r="T13">
+        <v>0.02336421707027067</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>104.0520413333333</v>
+      </c>
+      <c r="H14">
+        <v>312.156124</v>
+      </c>
+      <c r="I14">
+        <v>0.533483481220433</v>
+      </c>
+      <c r="J14">
+        <v>0.533483481220433</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>8.671405</v>
+      </c>
+      <c r="N14">
+        <v>26.014215</v>
+      </c>
+      <c r="O14">
+        <v>0.3735756773139306</v>
+      </c>
+      <c r="P14">
+        <v>0.3735756773139307</v>
+      </c>
+      <c r="Q14">
+        <v>902.2773914780732</v>
+      </c>
+      <c r="R14">
+        <v>8120.49652330266</v>
+      </c>
+      <c r="S14">
+        <v>0.1992964528327168</v>
+      </c>
+      <c r="T14">
+        <v>0.1992964528327169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>104.0520413333333</v>
+      </c>
+      <c r="H15">
+        <v>312.156124</v>
+      </c>
+      <c r="I15">
+        <v>0.533483481220433</v>
+      </c>
+      <c r="J15">
+        <v>0.533483481220433</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>12.91794</v>
+      </c>
+      <c r="N15">
+        <v>38.75382</v>
+      </c>
+      <c r="O15">
+        <v>0.5565220613038737</v>
+      </c>
+      <c r="P15">
+        <v>0.5565220613038738</v>
+      </c>
+      <c r="Q15">
+        <v>1344.13802682152</v>
+      </c>
+      <c r="R15">
+        <v>12097.24224139368</v>
+      </c>
+      <c r="S15">
+        <v>0.2968953266403618</v>
+      </c>
+      <c r="T15">
+        <v>0.2968953266403618</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>104.0520413333333</v>
+      </c>
+      <c r="H16">
+        <v>312.156124</v>
+      </c>
+      <c r="I16">
+        <v>0.533483481220433</v>
+      </c>
+      <c r="J16">
+        <v>0.533483481220433</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5509396666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.652819</v>
+      </c>
+      <c r="O16">
+        <v>0.02373521466637888</v>
+      </c>
+      <c r="P16">
+        <v>0.02373521466637889</v>
+      </c>
+      <c r="Q16">
+        <v>57.32639696817289</v>
+      </c>
+      <c r="R16">
+        <v>515.9375727135559</v>
+      </c>
+      <c r="S16">
+        <v>0.01266234494773408</v>
+      </c>
+      <c r="T16">
+        <v>0.01266234494773409</v>
       </c>
     </row>
   </sheetData>
